--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2199781.307386463</v>
+        <v>-2201778.980399307</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>178.2762471135909</v>
       </c>
       <c r="C2" t="n">
-        <v>324.9307903721891</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>281.382130536714</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>29.81206558629367</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.60563665982743</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>206.1608002224376</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>309.4693390969923</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>177.011498542528</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>234.4970761400735</v>
+        <v>28.27910107855478</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>179.9070498704724</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,22 +1184,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>109.2380724765469</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>112.2638403784901</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>103.3388316365584</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>161.817511795895</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.15066848647928</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>127.3922150510039</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.34216896083794</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>17.62960196568812</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>145.3660141484327</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>170.2201007724208</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789515</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2533,16 +2533,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941877</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898677</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689365</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463124</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415277</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689372</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539629</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1881.118241157406</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C2" t="n">
-        <v>1552.905321589539</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>1552.905321589539</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1167.117068991294</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>756.1311642016867</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>338.1673560998736</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2490.85840577048</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2490.85840577048</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>2117.3926475094</v>
       </c>
       <c r="Y2" t="n">
-        <v>1881.118241157406</v>
+        <v>2117.3926475094</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4410,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.4038777286579</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>471.4038777286579</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>471.4038777286579</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>471.4038777286579</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>471.4038777286579</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>302.4040774669903</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>144.6557048995205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286579</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.4038777286579</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>526.9497505916422</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>526.9497505916422</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>520.0042498424388</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,7 +4568,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2342.172109855092</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2342.172109855092</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2011.109222511521</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2011.109222511521</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1637.643464250441</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1637.643464250441</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4647,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2247.308246834948</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.345729894537</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>1520.080031287786</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.291778689542</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2355.601426512838</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2101.83964115093</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2101.83964115093</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1749.070985880816</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1749.070985880816</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834948</v>
+        <v>1358.931653905004</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>222.8791647482714</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8791647482714</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>349.5128432614248</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>201.5997496790317</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>201.5997496790317</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>800.6837097077201</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>545.9992215018333</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,7 +5261,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>626.428715221413</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="C16" t="n">
-        <v>626.428715221413</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1370.237265455878</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>1115.552777249991</v>
       </c>
       <c r="W16" t="n">
-        <v>1075.21084526296</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="X16" t="n">
-        <v>847.2212943649431</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="Y16" t="n">
-        <v>626.428715221413</v>
+        <v>826.1356072130308</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5507,16 +5507,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>657.1994242851239</v>
+        <v>294.1440025502357</v>
       </c>
       <c r="C19" t="n">
-        <v>657.1994242851239</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W19" t="n">
-        <v>657.1994242851239</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X19" t="n">
-        <v>657.1994242851239</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="Y19" t="n">
-        <v>657.1994242851239</v>
+        <v>475.7924673804754</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5753,10 +5753,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.1696912903951</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>359.1696912903951</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1696912903951</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1241.006809394038</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570736</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W22" t="n">
-        <v>531.109187020113</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X22" t="n">
-        <v>359.1696912903951</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y22" t="n">
-        <v>359.1696912903951</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6029,10 +6029,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6124,19 +6124,19 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C25" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F25" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.010087623275</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6361,34 +6361,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,10 +6619,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6950,13 +6950,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7090,7 +7090,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7108,22 +7108,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7166,37 +7166,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,37 +7345,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229673</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>213.2603911806638</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>96.03744927814699</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>20.63789864135373</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>349.7653003338569</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>40.34210139881844</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>297.9401928838412</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>80.36219811415336</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>63.15473682681922</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>124.4198406026824</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.46480453173308</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>158.8451373475735</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.9046521377899</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>268.8933963709029</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>52.55479583517052</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.48955461661637</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1286758.599070199</v>
+        <v>1286758.5990702</v>
       </c>
     </row>
     <row r="3">
@@ -26314,13 +26314,13 @@
         <v>18391.92434782022</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>19551.45298688544</v>
+        <v>19551.45298688543</v>
       </c>
       <c r="F2" t="n">
         <v>19551.45298688544</v>
@@ -26332,28 +26332,28 @@
         <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="J2" t="n">
         <v>20526.04424660712</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20526.04424660707</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.4568627595</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,19 +26491,19 @@
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-762486.5762396586</v>
+        <v>-762699.9882295371</v>
       </c>
       <c r="C6" t="n">
         <v>-219107.992068025</v>
@@ -26528,22 +26528,22 @@
         <v>-219107.992068025</v>
       </c>
       <c r="E6" t="n">
-        <v>-612641.5790601664</v>
+        <v>-612739.0381861385</v>
       </c>
       <c r="F6" t="n">
-        <v>-87481.54258327029</v>
+        <v>-87579.00170924245</v>
       </c>
       <c r="G6" t="n">
-        <v>-87481.54258327032</v>
+        <v>-87579.00170924253</v>
       </c>
       <c r="H6" t="n">
-        <v>-87481.54258327026</v>
+        <v>-87579.00170924244</v>
       </c>
       <c r="I6" t="n">
-        <v>-169159.0305398904</v>
+        <v>-169159.0305398905</v>
       </c>
       <c r="J6" t="n">
-        <v>-291076.7376287709</v>
+        <v>-291076.7376287708</v>
       </c>
       <c r="K6" t="n">
         <v>-114653.5184361779</v>
@@ -26555,7 +26555,7 @@
         <v>-249454.533670015</v>
       </c>
       <c r="N6" t="n">
-        <v>-169159.0305398904</v>
+        <v>-169159.0305398905</v>
       </c>
       <c r="O6" t="n">
         <v>-114653.5184361779</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26747,31 +26747,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>204.4575945498897</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>42.54064222764316</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>90.35998513251079</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>104.3148309238027</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.43682181512983</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>17.64056718375451</v>
+        <v>223.8585422452732</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>226.968995871239</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>107.2102478811109</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>5.94099699593491</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>112.7712650795942</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35015,10 +35015,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>546.4549645786765</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>406.4618263286133</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>227.7313135728785</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>599.0230052898812</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
